--- a/Datos/MOVIMIENTO.xlsx
+++ b/Datos/MOVIMIENTO.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Projecto_ABD\ABD\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\base\ABD\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FAE673F-9544-4071-B1D8-04B315287BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2595" windowWidth="24240" windowHeight="13140" xr2:uid="{991DD58F-569E-4E69-B245-8439DEABFA63}"/>
+    <workbookView xWindow="28680" yWindow="2592" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -59,21 +58,6 @@
   </si>
   <si>
     <t>PATRON</t>
-  </si>
-  <si>
-    <t>1254 2689 5472 0214</t>
-  </si>
-  <si>
-    <t>6892 4513 7892 4568</t>
-  </si>
-  <si>
-    <t>6705 0002 0012 0068</t>
-  </si>
-  <si>
-    <t>0025 0068 4444 9862</t>
-  </si>
-  <si>
-    <t>0236 0211 6587 6203</t>
   </si>
   <si>
     <t>EUR</t>
@@ -88,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,20 +418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED7E577-A0EE-4F59-9128-77DD2668EEE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,16 +457,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>ROW(A2)-1</f>
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1254268954720210</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>44119</v>
@@ -491,19 +475,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A29" si="0">ROW(A3)-1</f>
+        <f t="shared" ref="A3:A6" si="0">ROW(A3)-1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>6892451378924560</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>42387</v>
@@ -512,19 +496,19 @@
         <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4">
+        <v>6705000200120060</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>43949</v>
@@ -533,19 +517,19 @@
         <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
+      <c r="B5">
+        <v>25006844449862</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>44453</v>
@@ -554,19 +538,19 @@
         <v>189</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
+      <c r="B6">
+        <v>236021165876203</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>44611</v>
@@ -575,7 +559,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
